--- a/exp/exp_results.xlsx
+++ b/exp/exp_results.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50b582a8adf77086/文档/fed_privsyn/privsyn_git/Tabular-Data-Synthesis-Framework/exp/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="489" documentId="11_F25DC773A252ABDACC104805591D694A5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A70FD4C5-7615-4DA4-9392-0C9F3DBEDB2D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,97 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="28">
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>Center</t>
+  </si>
+  <si>
+    <t>Fed_privsyn</t>
+  </si>
+  <si>
+    <t>Adult (1-way) mean</t>
+  </si>
+  <si>
+    <t>Adult (1-way) std</t>
+  </si>
+  <si>
+    <t>Adult (2-way) mean</t>
+  </si>
+  <si>
+    <t>Adult (2-way) std</t>
+  </si>
+  <si>
+    <t>Adult (3-way) std</t>
+  </si>
+  <si>
+    <t>Adult (3-way) mean</t>
+  </si>
+  <si>
+    <t>Fed_adaptive</t>
+  </si>
+  <si>
+    <t>Abalone (1-way) mean</t>
+  </si>
+  <si>
+    <t>Abalone (2-way) mean</t>
+  </si>
+  <si>
+    <t>Abalone (1-way) std</t>
+  </si>
+  <si>
+    <t>Abalone (3-way) mean</t>
+  </si>
+  <si>
+    <t>Abalone (3-way) std</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.027836483253588517,</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>c=10</t>
+  </si>
+  <si>
+    <t>c=20</t>
+  </si>
+  <si>
+    <t>c=5</t>
+  </si>
+  <si>
+    <t>1-way</t>
+  </si>
+  <si>
+    <t>2-way</t>
+  </si>
+  <si>
+    <t>3-way</t>
+  </si>
+  <si>
+    <t>eps=1</t>
+  </si>
+  <si>
+    <t>c=15</t>
+  </si>
+  <si>
+    <t>c=25</t>
+  </si>
+  <si>
+    <t>Adaprivsyn</t>
+  </si>
+  <si>
+    <t>fedprivsyn</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,12 +124,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +168,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +454,1309 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="22.53125" customWidth="1"/>
+    <col min="2" max="2" width="15.9296875" customWidth="1"/>
+    <col min="3" max="3" width="12.86328125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="16.53125" customWidth="1"/>
+    <col min="6" max="6" width="13.9296875" customWidth="1"/>
+    <col min="7" max="7" width="12.06640625" customWidth="1"/>
+    <col min="8" max="8" width="13.265625" customWidth="1"/>
+    <col min="12" max="12" width="19.19921875" customWidth="1"/>
+    <col min="13" max="13" width="14.796875" customWidth="1"/>
+    <col min="14" max="14" width="15.265625" customWidth="1"/>
+    <col min="16" max="16" width="11.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>5</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>0.5</v>
+      </c>
+      <c r="F1">
+        <v>0.2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1">
+        <v>10</v>
+      </c>
+      <c r="N1">
+        <v>5</v>
+      </c>
+      <c r="O1">
+        <v>1</v>
+      </c>
+      <c r="P1">
+        <v>0.5</v>
+      </c>
+      <c r="Q1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>8.2578228159066493E-3</v>
+      </c>
+      <c r="C2">
+        <v>5.9142023645017599E-3</v>
+      </c>
+      <c r="D2">
+        <v>4.6505450637187098E-3</v>
+      </c>
+      <c r="E2">
+        <v>5.0715338553661898E-3</v>
+      </c>
+      <c r="F2">
+        <v>2.1855489021955998E-2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>4.9553354828803901E-3</v>
+      </c>
+      <c r="N2">
+        <v>4.6513741747274597E-3</v>
+      </c>
+      <c r="O2">
+        <v>5.1701059419622299E-3</v>
+      </c>
+      <c r="P2">
+        <v>4.8546138492246201E-3</v>
+      </c>
+      <c r="Q2">
+        <v>4.90819898664209E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.28290601873176702</v>
+      </c>
+      <c r="C3">
+        <v>0.35506301243666499</v>
+      </c>
+      <c r="D3">
+        <v>0.300773883003224</v>
+      </c>
+      <c r="E3">
+        <v>0.26894609243052298</v>
+      </c>
+      <c r="F3">
+        <v>0.279722247812068</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>7.7893597420543498E-2</v>
+      </c>
+      <c r="N3">
+        <v>4.3919591586058598E-2</v>
+      </c>
+      <c r="O3">
+        <v>6.9673099953938195E-2</v>
+      </c>
+      <c r="P3">
+        <v>5.9833763242745197E-2</v>
+      </c>
+      <c r="Q3">
+        <v>7.6442607093505199E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.13696915399969201</v>
+      </c>
+      <c r="C4">
+        <v>0.14323887609396499</v>
+      </c>
+      <c r="D4">
+        <v>0.28207690772301502</v>
+      </c>
+      <c r="E4">
+        <v>0.13418659603869099</v>
+      </c>
+      <c r="F4">
+        <v>0.18413979732842001</v>
+      </c>
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4">
+        <v>4.4508935974205403E-2</v>
+      </c>
+      <c r="N4">
+        <v>4.5336619069553198E-2</v>
+      </c>
+      <c r="O4">
+        <v>6.1469000000000003E-2</v>
+      </c>
+      <c r="P4">
+        <v>4.3819207738369399E-2</v>
+      </c>
+      <c r="Q4">
+        <v>7.0650529709811102E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>0.2</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0.5</v>
+      </c>
+      <c r="Q6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1.2721531100478399E-2</v>
+      </c>
+      <c r="C7">
+        <v>1.48200956937799E-2</v>
+      </c>
+      <c r="D7">
+        <v>3.5543779904306197E-2</v>
+      </c>
+      <c r="E7">
+        <v>8.5939234449760704E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.16041674641148301</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.3942822966507101E-2</v>
+      </c>
+      <c r="N7">
+        <v>1.28580143540669E-2</v>
+      </c>
+      <c r="O7">
+        <v>1.8360885167464099E-2</v>
+      </c>
+      <c r="P7">
+        <v>3.34404306220095E-2</v>
+      </c>
+      <c r="Q7">
+        <v>6.4746291866028705E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>0.143131100478468</v>
+      </c>
+      <c r="C8">
+        <v>0.14498205741626699</v>
+      </c>
+      <c r="D8">
+        <v>0.145075837320574</v>
+      </c>
+      <c r="E8">
+        <v>0.15608133971291799</v>
+      </c>
+      <c r="F8">
+        <v>0.19453193779904299</v>
+      </c>
+      <c r="L8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>6.6736244019138705E-2</v>
+      </c>
+      <c r="N8">
+        <v>6.2057894736842097E-2</v>
+      </c>
+      <c r="O8">
+        <v>5.86790669856459E-2</v>
+      </c>
+      <c r="P8">
+        <v>6.4225598086124394E-2</v>
+      </c>
+      <c r="Q8">
+        <v>6.92497607655502E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.16067834928229599</v>
+      </c>
+      <c r="C9">
+        <v>0.12211267942583701</v>
+      </c>
+      <c r="D9">
+        <v>0.126855263157894</v>
+      </c>
+      <c r="E9">
+        <v>0.13733313397129099</v>
+      </c>
+      <c r="F9">
+        <v>0.13733313397129099</v>
+      </c>
+      <c r="L9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9">
+        <v>5.6139114832535801E-2</v>
+      </c>
+      <c r="N9">
+        <v>5.8287200956937797E-2</v>
+      </c>
+      <c r="O9">
+        <v>5.9341746411483202E-2</v>
+      </c>
+      <c r="P9">
+        <v>5.8819019138755903E-2</v>
+      </c>
+      <c r="Q9">
+        <v>5.8819019138755903E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0.5</v>
+      </c>
+      <c r="F17">
+        <v>0.2</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17">
+        <v>10</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>0.5</v>
+      </c>
+      <c r="Q17">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1.10855146788865E-2</v>
+      </c>
+      <c r="C18">
+        <v>7.2121535284924501E-3</v>
+      </c>
+      <c r="D18">
+        <v>2.67035686693462E-3</v>
+      </c>
+      <c r="E18">
+        <v>4.9397356881066097E-3</v>
+      </c>
+      <c r="F18">
+        <v>4.9208701790294899E-2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.0015556299289005E-4</v>
+      </c>
+      <c r="N18">
+        <v>5.4475356458184604E-4</v>
+      </c>
+      <c r="O18">
+        <v>6.1320320045015896E-4</v>
+      </c>
+      <c r="P18">
+        <v>7.4630093812095395E-4</v>
+      </c>
+      <c r="Q18">
+        <v>4.6319110164811799E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>8.4601087793460802E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.12208524210148999</v>
+      </c>
+      <c r="D19">
+        <v>0.139489092136451</v>
+      </c>
+      <c r="E19">
+        <v>0.14872402938430199</v>
+      </c>
+      <c r="F19">
+        <v>4.9988394786221302E-2</v>
+      </c>
+      <c r="L19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>6.5819644728888904E-3</v>
+      </c>
+      <c r="N19">
+        <v>3.0350784046749E-3</v>
+      </c>
+      <c r="O19">
+        <v>8.7213530452242196E-3</v>
+      </c>
+      <c r="P19">
+        <v>4.1922564368389202E-3</v>
+      </c>
+      <c r="Q19">
+        <v>7.1288684681158404E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>2.7069903992613598E-2</v>
+      </c>
+      <c r="C20">
+        <v>3.1822300966000902E-2</v>
+      </c>
+      <c r="D20">
+        <v>0.14595449344897801</v>
+      </c>
+      <c r="E20">
+        <v>2.73491400015008E-2</v>
+      </c>
+      <c r="F20">
+        <v>5.7360301161783797E-2</v>
+      </c>
+      <c r="L20" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20">
+        <v>1.9475979554384401E-3</v>
+      </c>
+      <c r="N20">
+        <v>3.5734718980923999E-3</v>
+      </c>
+      <c r="O20">
+        <v>6.97570901376142E-3</v>
+      </c>
+      <c r="P20">
+        <v>2.86552826452806E-3</v>
+      </c>
+      <c r="Q20">
+        <v>2.4106612311620801E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0.5</v>
+      </c>
+      <c r="F22">
+        <v>0.2</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22">
+        <v>10</v>
+      </c>
+      <c r="N22">
+        <v>5</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>0.5</v>
+      </c>
+      <c r="Q22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2.9657917894156502E-3</v>
+      </c>
+      <c r="C23">
+        <v>2.8066904793055398E-3</v>
+      </c>
+      <c r="D23">
+        <v>1.37954354116637E-2</v>
+      </c>
+      <c r="E23">
+        <v>3.26751931441377E-2</v>
+      </c>
+      <c r="F23">
+        <v>6.2326897924620102E-2</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.28437842066666E-3</v>
+      </c>
+      <c r="N23">
+        <v>9.4017754625359395E-4</v>
+      </c>
+      <c r="O23">
+        <v>1.0376576118386E-3</v>
+      </c>
+      <c r="P23">
+        <v>1.36825769845075E-3</v>
+      </c>
+      <c r="Q23">
+        <v>5.5189698647117903E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>3.1685576359580303E-2</v>
+      </c>
+      <c r="C24">
+        <v>2.4439449950910699E-2</v>
+      </c>
+      <c r="D24">
+        <v>3.06332786213676E-2</v>
+      </c>
+      <c r="E24">
+        <v>3.06349741778374E-2</v>
+      </c>
+      <c r="F24">
+        <v>3.9753683486425197E-2</v>
+      </c>
+      <c r="L24" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>8.2573876605721592E-3</v>
+      </c>
+      <c r="N24">
+        <v>3.7758242242728799E-3</v>
+      </c>
+      <c r="O24">
+        <v>7.6634272126747697E-3</v>
+      </c>
+      <c r="P24">
+        <v>5.0785206387227704E-3</v>
+      </c>
+      <c r="Q24">
+        <v>6.26506252086726E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>6.5655938854834395E-2</v>
+      </c>
+      <c r="C25">
+        <v>6.3485686134724995E-2</v>
+      </c>
+      <c r="D25">
+        <v>2.6385521026141799E-2</v>
+      </c>
+      <c r="E25">
+        <v>3.1451975318015697E-2</v>
+      </c>
+      <c r="F25">
+        <v>3.1451975318015697E-2</v>
+      </c>
+      <c r="L25" t="s">
+        <v>9</v>
+      </c>
+      <c r="M25">
+        <v>3.3958797170677E-3</v>
+      </c>
+      <c r="N25">
+        <v>7.7737358439210497E-3</v>
+      </c>
+      <c r="O25">
+        <v>4.6454203951595699E-3</v>
+      </c>
+      <c r="P25">
+        <v>3.6368050935288699E-3</v>
+      </c>
+      <c r="Q25">
+        <v>3.6368050935288699E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0.5</v>
+      </c>
+      <c r="F32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>1.7951021034853299E-3</v>
+      </c>
+      <c r="C33">
+        <v>1.8061569169353601E-3</v>
+      </c>
+      <c r="D33">
+        <v>1.65891294334408E-3</v>
+      </c>
+      <c r="E33">
+        <v>1.7005066789497899E-3</v>
+      </c>
+      <c r="F33">
+        <v>1.59477967142637E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>1.5529863350222601E-2</v>
+      </c>
+      <c r="C34">
+        <v>1.5889651466298099E-2</v>
+      </c>
+      <c r="D34">
+        <v>1.9178412405957301E-2</v>
+      </c>
+      <c r="E34">
+        <v>1.22864578535237E-2</v>
+      </c>
+      <c r="F34">
+        <v>1.5859926301243599E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>1.0834162444342E-2</v>
+      </c>
+      <c r="C35">
+        <v>1.43365269461077E-2</v>
+      </c>
+      <c r="D35">
+        <v>1.6593228926761801E-2</v>
+      </c>
+      <c r="E35">
+        <v>1.0930170428374001E-2</v>
+      </c>
+      <c r="F35">
+        <v>1.0781360356210599E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0.5</v>
+      </c>
+      <c r="F37">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>6.5343301435406703E-3</v>
+      </c>
+      <c r="C38">
+        <v>5.6184210526315798E-3</v>
+      </c>
+      <c r="D38">
+        <v>7.43062200956937E-3</v>
+      </c>
+      <c r="E38">
+        <v>1.18604066985645E-2</v>
+      </c>
+      <c r="F38">
+        <v>1.92678229665071E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>2.1266866028708101E-2</v>
+      </c>
+      <c r="C39">
+        <v>2.1135167464114799E-2</v>
+      </c>
+      <c r="D39">
+        <v>1.8636004784688999E-2</v>
+      </c>
+      <c r="E39">
+        <v>2.15563397129186E-2</v>
+      </c>
+      <c r="F39">
+        <v>2.0049401913875501E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>1.9645334928229601E-2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <v>2.07417464114832E-2</v>
+      </c>
+      <c r="E40">
+        <v>2.00883971291866E-2</v>
+      </c>
+      <c r="F40">
+        <v>2.00883971291866E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0.5</v>
+      </c>
+      <c r="F43">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>2.6690048007830001E-4</v>
+      </c>
+      <c r="C44">
+        <v>3.1835297317292402E-4</v>
+      </c>
+      <c r="D44">
+        <v>2.8889490157421501E-4</v>
+      </c>
+      <c r="E44">
+        <v>2.8220306018366097E-4</v>
+      </c>
+      <c r="F44">
+        <v>1.6538252267717701E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>1.8627079527221699E-3</v>
+      </c>
+      <c r="C45">
+        <v>3.52830298692815E-3</v>
+      </c>
+      <c r="D45">
+        <v>3.6380681075595701E-3</v>
+      </c>
+      <c r="E45">
+        <v>1.62427972812093E-3</v>
+      </c>
+      <c r="F45">
+        <v>3.1269596606178598E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>6.3979982826127297E-4</v>
+      </c>
+      <c r="C46">
+        <v>3.7901727708129699E-3</v>
+      </c>
+      <c r="D46">
+        <v>2.85302967482897E-3</v>
+      </c>
+      <c r="E46">
+        <v>1.1065189268102699E-3</v>
+      </c>
+      <c r="F46">
+        <v>1.03802453550506E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0.5</v>
+      </c>
+      <c r="F48">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>8.6018409825032005E-4</v>
+      </c>
+      <c r="C49">
+        <v>5.9408060620761501E-4</v>
+      </c>
+      <c r="D49">
+        <v>8.5133134444491398E-4</v>
+      </c>
+      <c r="E49">
+        <v>1.1258184920148199E-3</v>
+      </c>
+      <c r="F49">
+        <v>1.8064644983416299E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>3.0045249888724398E-3</v>
+      </c>
+      <c r="C50">
+        <v>2.0819887070442199E-3</v>
+      </c>
+      <c r="D50">
+        <v>2.4298207040360999E-3</v>
+      </c>
+      <c r="E50">
+        <v>2.4062797162568601E-3</v>
+      </c>
+      <c r="F50">
+        <v>1.91633156191247E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>1.32478344672603E-3</v>
+      </c>
+      <c r="C51">
+        <v>3.5733819616601799E-3</v>
+      </c>
+      <c r="D51">
+        <v>1.60376889162557E-3</v>
+      </c>
+      <c r="E51">
+        <v>1.4887668074974199E-3</v>
+      </c>
+      <c r="F51">
+        <v>1.4887668074974199E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="E55">
+        <v>0.28412164179104399</v>
+      </c>
+      <c r="F55">
+        <v>0.166382835820895</v>
+      </c>
+      <c r="G55" s="4">
+        <v>0.24030373134328301</v>
+      </c>
+      <c r="H55">
+        <v>0.409469402985074</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56">
+        <v>5.05925373134328E-2</v>
+      </c>
+      <c r="E56">
+        <v>0.11165597014925301</v>
+      </c>
+      <c r="F56">
+        <v>9.7147761194029805E-2</v>
+      </c>
+      <c r="G56" s="4">
+        <v>0.100457462686567</v>
+      </c>
+      <c r="H56">
+        <v>0.13457910447761101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57">
+        <v>1.9585820895522299E-2</v>
+      </c>
+      <c r="E57">
+        <v>3.8600000000000002E-2</v>
+      </c>
+      <c r="F57">
+        <v>3.3246268656716399E-2</v>
+      </c>
+      <c r="G57" s="4">
+        <v>3.3380597014925302E-2</v>
+      </c>
+      <c r="H57">
+        <v>4.0674626865671602E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C60" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" t="s">
+        <v>24</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61">
+        <v>0.34394850746268602</v>
+      </c>
+      <c r="E61">
+        <v>0.102594776119402</v>
+      </c>
+      <c r="F61">
+        <v>0.10625</v>
+      </c>
+      <c r="G61" s="4">
+        <v>0.30896417910447699</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62">
+        <v>0.14665895522388001</v>
+      </c>
+      <c r="E62">
+        <v>5.1320895522387999E-2</v>
+      </c>
+      <c r="F62">
+        <v>5.2151492537313403E-2</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0.11200895522388001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63">
+        <v>5.5999999999999897E-2</v>
+      </c>
+      <c r="E63">
+        <v>1.9693283582089501E-2</v>
+      </c>
+      <c r="F63">
+        <v>1.9314179104477601E-2</v>
+      </c>
+      <c r="G63" s="4">
+        <v>3.4554477611940297E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67">
+        <v>0.125527928757868</v>
+      </c>
+      <c r="C67">
+        <v>0.15401040994933199</v>
+      </c>
+      <c r="D67">
+        <v>0.15452408004503801</v>
+      </c>
+      <c r="E67" s="5">
+        <v>0.22731173550335201</v>
+      </c>
+      <c r="F67">
+        <v>0.21726500844464899</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68">
+        <v>4.5743927529556201E-2</v>
+      </c>
+      <c r="C68">
+        <v>4.7377122677721401E-2</v>
+      </c>
+      <c r="D68">
+        <v>4.21660269205179E-2</v>
+      </c>
+      <c r="E68" s="5">
+        <v>6.8825681969394495E-2</v>
+      </c>
+      <c r="F68">
+        <v>4.6909104867188599E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69">
+        <v>1.0724643021648999E-2</v>
+      </c>
+      <c r="C69">
+        <v>1.07646860125902E-2</v>
+      </c>
+      <c r="D69">
+        <v>1.1674138901683799E-2</v>
+      </c>
+      <c r="E69" s="5">
+        <v>1.7339679615128702E-2</v>
+      </c>
+      <c r="F69">
+        <v>1.10728287015712E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73">
+        <v>0.16735943497620101</v>
+      </c>
+      <c r="C73">
+        <v>0.16811957623215101</v>
+      </c>
+      <c r="D73">
+        <v>0.22796093965914299</v>
+      </c>
+      <c r="E73" s="5">
+        <v>0.18842561031782501</v>
+      </c>
+      <c r="F73">
+        <v>0.30846281795383501</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74">
+        <v>4.3889543988945103E-2</v>
+      </c>
+      <c r="C74">
+        <v>4.7061477045908101E-2</v>
+      </c>
+      <c r="D74">
+        <v>6.8945585751573696E-2</v>
+      </c>
+      <c r="E74" s="5">
+        <v>6.6729515328317696E-2</v>
+      </c>
+      <c r="F74">
+        <v>7.88372485797635E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75">
+        <v>1.01801934592353E-2</v>
+      </c>
+      <c r="C75">
+        <v>1.1058744050360799E-2</v>
+      </c>
+      <c r="D75">
+        <v>1.34884692154153E-2</v>
+      </c>
+      <c r="E75" s="5">
+        <v>1.9995700905880501E-2</v>
+      </c>
+      <c r="F75">
+        <v>1.3695992630124301E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>